--- a/outputs-GTDB-r202-archive3/o__RF39.xlsx
+++ b/outputs-GTDB-r202-archive3/o__RF39.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="o__RF39_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -715,6 +715,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs-GTDB-r202-archive3/o__RF39.xlsx
+++ b/outputs-GTDB-r202-archive3/o__RF39.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>max</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,13 +470,13 @@
       <c r="B2" t="n">
         <v>15169.99967914269</v>
       </c>
-      <c r="C2" t="n">
-        <v>15169.99967914269</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,13 +493,13 @@
       <c r="B3" t="n">
         <v>17734.57837738676</v>
       </c>
-      <c r="C3" t="n">
-        <v>17734.57837738676</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -516,13 +516,13 @@
       <c r="B4" t="n">
         <v>3955.242988863332</v>
       </c>
-      <c r="C4" t="n">
-        <v>3955.242988863332</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -539,13 +539,13 @@
       <c r="B5" t="n">
         <v>12799.95093667082</v>
       </c>
-      <c r="C5" t="n">
-        <v>12799.95093667082</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -562,13 +562,13 @@
       <c r="B6" t="n">
         <v>4107.469671099627</v>
       </c>
-      <c r="C6" t="n">
-        <v>4107.469671099627</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -585,13 +585,13 @@
       <c r="B7" t="n">
         <v>-1571.873432174076</v>
       </c>
-      <c r="C7" t="n">
-        <v>-1571.873432174076</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -608,13 +608,13 @@
       <c r="B8" t="n">
         <v>7539.451745763115</v>
       </c>
-      <c r="C8" t="n">
-        <v>7539.451745763115</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -631,13 +631,13 @@
       <c r="B9" t="n">
         <v>21824.7658635693</v>
       </c>
-      <c r="C9" t="n">
-        <v>21824.7658635693</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -654,13 +654,13 @@
       <c r="B10" t="n">
         <v>25439.1528743044</v>
       </c>
-      <c r="C10" t="n">
-        <v>25439.1528743044</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -677,13 +677,13 @@
       <c r="B11" t="n">
         <v>6504.848605924315</v>
       </c>
-      <c r="C11" t="n">
-        <v>6504.848605924315</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -700,13 +700,13 @@
       <c r="B12" t="n">
         <v>33851.21490407946</v>
       </c>
-      <c r="C12" t="n">
-        <v>33851.21490407946</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>f__UBA660</t>
-        </is>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__UBA660</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
